--- a/src/Rapport Magasin.xlsx
+++ b/src/Rapport Magasin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,12 +494,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65810</t>
+          <t>65827</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>101572</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -519,18 +519,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>20</v>
       </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Magasin introuvable</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -541,12 +537,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>65810</t>
+          <t>65822</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -556,7 +552,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>102151</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -566,18 +562,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Magasin introuvable</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -588,12 +580,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>65810</t>
+          <t>03162</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -603,7 +595,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>103232</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -613,18 +605,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Magasin introuvable</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -635,12 +623,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>65810</t>
+          <t>61347</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -650,7 +638,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>102253</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -660,18 +648,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Magasin introuvable</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -682,12 +666,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>65810</t>
+          <t>11654</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -697,7 +681,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>099432</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -707,18 +691,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Magasin introuvable</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -729,12 +709,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>65818</t>
+          <t>65869</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -744,7 +724,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>254616</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -754,11 +734,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -772,7 +752,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -787,7 +767,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>254616</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -797,11 +777,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -815,12 +795,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>65818</t>
+          <t>65864</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -830,7 +810,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -840,11 +820,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -858,12 +838,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>65827</t>
+          <t>65818</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -873,7 +853,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -883,11 +863,11 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -901,12 +881,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>65827</t>
+          <t>08294</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -916,7 +896,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>103232</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -926,11 +906,11 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -944,7 +924,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -959,21 +939,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>377622</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -987,12 +967,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>65888</t>
+          <t>03680</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1002,21 +982,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>105110</t>
+          <t>377622</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1030,12 +1010,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>65888</t>
+          <t>03692</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1045,17 +1025,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>103232</t>
+          <t>377622</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1073,12 +1053,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>65805</t>
+          <t>61347</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1088,21 +1068,21 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>103232</t>
+          <t>377622</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1116,12 +1096,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>65805</t>
+          <t>65827</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1131,21 +1111,21 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>254616</t>
+          <t>377622</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1159,12 +1139,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>65818</t>
+          <t>65869</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1174,21 +1154,21 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>080779</t>
+          <t>377622</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1202,12 +1182,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>65822</t>
+          <t>17167</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1217,21 +1197,21 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>254616</t>
+          <t>377622</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1245,12 +1225,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>65869</t>
+          <t>08294</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1260,21 +1240,21 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>105110</t>
+          <t>377622</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1288,12 +1268,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>03691</t>
+          <t>65818</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1303,21 +1283,21 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>021471</t>
+          <t>377622</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1331,12 +1311,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>03691</t>
+          <t>57673</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1346,21 +1326,21 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>753916</t>
+          <t>377622</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1374,12 +1354,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>03691</t>
+          <t>17167</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1389,21 +1369,21 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>011302</t>
+          <t>099885</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1417,12 +1397,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>03691</t>
+          <t>11654</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1432,7 +1412,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>120183</t>
+          <t>099885</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1442,11 +1422,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1460,12 +1440,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>03691</t>
+          <t>03162</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1475,7 +1455,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>856414</t>
+          <t>099885</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1485,11 +1465,11 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1503,12 +1483,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>03691</t>
+          <t>61347</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1518,7 +1498,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>081823</t>
+          <t>099885</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1528,11 +1508,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1546,12 +1526,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>03691</t>
+          <t>03680</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1561,7 +1541,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>110726</t>
+          <t>099885</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1571,11 +1551,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1589,12 +1569,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>65818</t>
+          <t>65827</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1604,7 +1584,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>101572</t>
+          <t>099885</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1614,11 +1594,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1632,12 +1612,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>65818</t>
+          <t>57673</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1647,7 +1627,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>100386</t>
+          <t>099885</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1657,11 +1637,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1675,12 +1655,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>65818</t>
+          <t>65859</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1690,7 +1670,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>086297</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1700,11 +1680,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1718,12 +1698,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>65818</t>
+          <t>65864</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1733,7 +1713,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>120183</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1743,11 +1723,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1761,12 +1741,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>65822</t>
+          <t>17167</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1776,7 +1756,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>086297</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1786,11 +1766,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1804,12 +1784,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>65822</t>
+          <t>11654</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1819,7 +1799,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>031653</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1829,11 +1809,11 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1847,12 +1827,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>01264</t>
+          <t>03692</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1862,7 +1842,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>120237</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1872,11 +1852,11 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1890,12 +1870,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>01264</t>
+          <t>03162</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1905,7 +1885,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>116648</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1915,11 +1895,11 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1933,12 +1913,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>01264</t>
+          <t>65827</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1948,7 +1928,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1958,7 +1938,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -1976,12 +1956,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>01264</t>
+          <t>03680</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1991,7 +1971,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>110726</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2001,11 +1981,11 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -2019,12 +1999,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>01264</t>
+          <t>55517</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2034,7 +2014,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>086297</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2044,11 +2024,11 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -2062,12 +2042,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>01264</t>
+          <t>61347</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2077,7 +2057,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>254616</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2087,11 +2067,11 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -2105,12 +2085,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>01264</t>
+          <t>57673</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2120,7 +2100,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>121954</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2130,11 +2110,11 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -2148,12 +2128,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>01264</t>
+          <t>65864</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2163,21 +2143,21 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>031653</t>
+          <t>062765</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2191,12 +2171,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>01264</t>
+          <t>11654</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2206,21 +2186,21 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>081823</t>
+          <t>062765</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2234,12 +2214,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>01264</t>
+          <t>03692</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2249,24 +2229,7377 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>120183</t>
+          <t>062765</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>230524</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>65827</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>03680</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>17167</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>6</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>55517</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>61347</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>57673</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>61347</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>8</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>03691</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>17167</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>65864</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>08294</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>15</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>6</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>57673</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>65827</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>16</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>55517</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>031551</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>55517</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>120958</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>55517</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>120956</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>7</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>55517</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>116632</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>55517</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>120230</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>4</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>55517</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>103103</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>55517</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>120237</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>55517</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>116648</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>20366</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>120183</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>20366</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>077055</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>20366</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>116633</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>4</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>57673</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>140738</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>C37</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>8</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>57673</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>116632</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>57673</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>123223</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>8</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>57673</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>101572</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>15</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>57673</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>100378</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>65859</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>785072</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>20</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>099885</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>10</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>5</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>65859</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>099885</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>10</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>65859</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>5</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>65869</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>099885</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>10</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>65869</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>65869</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>10</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>82</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>65874</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>099885</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>65874</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>84</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>03692</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>099885</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>85</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>20366</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>86</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>20366</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>87</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>65859</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>110726</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>15</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>65859</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>140738</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>C37</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>65859</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>031551</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>65859</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>120183</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>4</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>91</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>65859</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>100378</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>8</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>92</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>65864</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>103232</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>65864</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>122546</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>18</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>94</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>65864</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>116648</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>8</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>61347</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>121954</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>10</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>96</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>61347</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>076810</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>97</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>61347</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>077433</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>98</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>61347</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>754190</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>99</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>61347</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>120183</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>100</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>61347</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>081842</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>101</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>785072</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>20</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>102</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>099702</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>10</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>103</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>120183</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>6</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>104</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>559307</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>C35</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>4</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>105</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>021471</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>106</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>5</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>107</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>120230</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>6</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>108</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>103103</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>6</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>109</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>120237</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>6</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>110</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>116648</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>10</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>111</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>01593</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>116633</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>4</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>112</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>65869</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>120956</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>5</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>113</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>65869</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>110726</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>8</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>114</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>65869</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>031551</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>115</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>65869</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>100378</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>8</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>116</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>65869</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>101621</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>6</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>117</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>65869</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>120958</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>5</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>118</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>65869</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>102151</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>3</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>119</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>65869</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>099702</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>5</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>120</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>65869</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>100304</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>4</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>121</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>03162</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>120230</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>10</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>122</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>03162</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>103103</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>10</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>123</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>03162</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>120237</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>10</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>124</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>120183</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>5</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>125</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>102253</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>3</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>126</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>031653</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>127</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>021311</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>128</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>134926</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>129</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>086297</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>3</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>130</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>116648</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>4</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>131</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>754190</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>132</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>08294</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>3</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>133</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>08294</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>103232</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>3</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>134</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>08294</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>123223</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>135</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>08294</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>120237</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>4</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>136</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>08294</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>120230</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>3</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>137</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>08294</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>103103</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>3</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>138</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>08294</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>116648</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>139</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>08294</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>099702</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>6</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>140</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>08294</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>102151</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>6</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>141</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>65872</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>843091</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>20</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>142</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>65877</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>843091</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>20</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>143</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>21670</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>843091</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>40</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>144</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>65858</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>843091</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>15</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>145</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>65831</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>843091</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>8</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>146</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>65179</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>843091</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>15</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>147</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>21670</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>377622</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>C33</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>15</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>148</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>65858</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>377622</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>C33</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>7</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>149</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>65916</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>377622</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>C33</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>20</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>150</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>65877</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>377622</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>C33</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>5</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>151</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>65179</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>377622</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>C33</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>15</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>152</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>65872</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>377622</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>C33</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>10</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>153</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>65843</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>099885</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>5</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>154</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>65831</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>099885</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>10</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>155</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>65179</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>099885</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>15</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>156</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>65858</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>099885</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>15</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>157</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>65877</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>099885</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>5</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>158</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>21670</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>099885</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>20</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>159</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>65916</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>160</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>61700</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>6</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>161</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>65831</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>4</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>162</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>65858</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>6</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>163</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>65877</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>30</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>164</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>65843</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>10</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>165</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>21670</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>10</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>166</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>65916</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>3</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>167</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>65831</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>4</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>168</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>01264</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>169</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>21670</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>8</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>170</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>65843</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>2</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>171</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>65877</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>5</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>172</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>65858</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>5</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>173</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>61700</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>2</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>174</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>65179</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>3</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>175</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>65843</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>10</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>176</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>65805</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>6</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>177</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>65858</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>25</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>178</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>65179</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>10</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>179</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>65872</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>40</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>180</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>65805</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>120183</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>4</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>181</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>65877</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>785072</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>20</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>182</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>03164</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>100903</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>3</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>183</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>03164</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>100304</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>4</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>184</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>65858</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>123223</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>10</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>185</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>65858</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>785072</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>C10</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>5</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>186</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>65858</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>120237</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>5</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>187</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>03164</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>559307</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>C35</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>188</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>03164</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>103232</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>189</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>03164</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>121954</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>30</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>190</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>03164</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>011302</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>C40</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>20</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>191</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>03164</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>011265</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>192</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>03164</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>116632</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>5</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>193</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>03164</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>122546</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>25</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>194</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>03164</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>116976</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>2</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>195</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>03164</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>120956</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>4</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>196</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>03164</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>120958</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>2</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>197</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>03164</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>099432</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>8</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>198</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>65179</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>102151</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>6</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>199</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>65179</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>099702</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>6</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>200</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>65179</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>120237</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>6</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>201</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>65179</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>100304</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>4</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>202</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>65179</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>120230</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>5</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>203</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>65179</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>116648</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>6</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>204</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>65179</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>110726</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>6</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>205</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>65179</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>136825</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>3</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>206</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>65872</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>122546</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>20</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>207</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>65872</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>101913</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>208</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>65872</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>116976</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>2</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>209</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>65872</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>120956</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>8</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>210</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>65843</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>100304</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>5</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>211</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>65843</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>077433</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>8</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>212</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>65843</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>753913</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>230524</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>4</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/src/Rapport Magasin.xlsx
+++ b/src/Rapport Magasin.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27174</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>843091</t>
+          <t>754190</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -524,19 +524,15 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -552,7 +548,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27174</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -562,7 +558,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>121954</t>
+          <t>118367</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,19 +568,15 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -600,7 +592,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27174</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -610,7 +602,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>031551</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -620,19 +612,15 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -648,7 +636,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27174</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -658,29 +646,25 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>043576</t>
+          <t>081842</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C35</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -696,7 +680,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27174</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -706,7 +690,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>011437</t>
+          <t>098830</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -716,19 +700,15 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -744,7 +724,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27174</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -754,29 +734,25 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>062765</t>
+          <t>803977</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C27</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -792,7 +768,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27174</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -802,7 +778,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>100386</t>
+          <t>136825</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -812,19 +788,15 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -840,7 +812,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27174</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -850,29 +822,25 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>078451</t>
+          <t>011268</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C45</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -888,7 +856,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27174</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -898,29 +866,25 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>116631</t>
+          <t>062765</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -936,7 +900,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27174</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -946,7 +910,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>123223</t>
+          <t>098511</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -956,7 +920,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -964,11 +928,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -984,7 +944,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27174</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -994,29 +954,25 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>261578</t>
+          <t>077433</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1032,7 +988,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27174</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1042,17 +998,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MAJSER</t>
+          <t>077995</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1060,11 +1016,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1080,7 +1032,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1090,7 +1042,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>120171</t>
+          <t>120956</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1100,19 +1052,15 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1128,7 +1076,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1138,7 +1086,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>843091</t>
+          <t>098934</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1148,19 +1096,15 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1176,7 +1120,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1186,29 +1130,25 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>803977</t>
+          <t>100304</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C27</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1224,7 +1164,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1234,29 +1174,25 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>140583</t>
+          <t>031285</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C37</t>
+          <t>C40</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1272,7 +1208,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1282,7 +1218,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>011437</t>
+          <t>116621</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1292,19 +1228,15 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1320,7 +1252,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1330,29 +1262,25 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>062765</t>
+          <t>122546</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1368,7 +1296,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1378,7 +1306,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>101621</t>
+          <t>123223</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1388,19 +1316,15 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1416,7 +1340,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1426,7 +1350,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>100386</t>
+          <t>121963</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1436,19 +1360,15 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1464,7 +1384,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1474,7 +1394,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>099769</t>
+          <t>097976</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1484,19 +1404,15 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1512,7 +1428,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1522,7 +1438,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>120394</t>
+          <t>043935</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1532,7 +1448,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1540,11 +1456,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1560,7 +1472,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>50138</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1570,29 +1482,25 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>116631</t>
+          <t>MAJSER</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>999</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1608,7 +1516,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1618,7 +1526,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>123223</t>
+          <t>105147</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1628,7 +1536,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1636,11 +1544,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1656,7 +1560,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1666,7 +1570,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>120171</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1676,19 +1580,15 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1704,7 +1604,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22672</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1714,29 +1614,25 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MAJSER</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1752,7 +1648,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1762,7 +1658,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>116209</t>
+          <t>081842</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1772,19 +1668,15 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1800,7 +1692,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1810,7 +1702,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>843120</t>
+          <t>098830</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1820,19 +1712,15 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1848,7 +1736,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1858,29 +1746,25 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>043576</t>
+          <t>121963</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C35</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1896,7 +1780,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1906,29 +1790,25 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>062765</t>
+          <t>150756</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1944,7 +1824,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1954,29 +1834,25 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>011529</t>
+          <t>043935</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C35</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1992,7 +1868,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2002,29 +1878,25 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>011385</t>
+          <t>281185</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2040,7 +1912,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2050,7 +1922,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>120183</t>
+          <t>101565</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2060,19 +1932,15 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2088,7 +1956,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2098,7 +1966,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>120394</t>
+          <t>100414</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2108,19 +1976,15 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2136,7 +2000,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2146,29 +2010,25 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>140583</t>
+          <t>120956</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>C37</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2184,7 +2044,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2194,7 +2054,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>101913</t>
+          <t>102981</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2204,19 +2064,15 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2232,7 +2088,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2242,29 +2098,25 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>803977</t>
+          <t>135793</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>C27</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2280,7 +2132,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2290,7 +2142,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>114642</t>
+          <t>102158</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2300,19 +2152,15 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2328,7 +2176,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2338,7 +2186,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>081842</t>
+          <t>100304</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2348,19 +2196,15 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2376,7 +2220,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2386,29 +2230,25 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>556800</t>
+          <t>122546</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>C15</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2424,7 +2264,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2434,7 +2274,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>121954</t>
+          <t>134926</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2444,19 +2284,15 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2472,7 +2308,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2482,29 +2318,25 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MAJSER</t>
+          <t>097675</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2520,7 +2352,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>04046</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2530,17 +2362,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>031285</t>
+          <t>MAJSER</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>999</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>280524</t>
+          <t>290724</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2548,1597 +2380,9 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>04046</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>116209</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>04046</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>123223</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>04046</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>803977</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>C27</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>04046</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>140583</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>C37</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>04046</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>011529</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>C35</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>4</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>04046</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>122546</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>6</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>04046</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>081842</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>2</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>04046</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>099338</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>04046</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>122114</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>04046</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>MAJSER</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>754190</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>120183</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>843120</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>114644</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>2</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>114642</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>081842</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>803977</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>C27</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>617113</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>25</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>62</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>011302</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>C40</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>63</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>062765</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>C7</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>64</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>101621</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>65</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>100386</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>100304</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>67</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>077433</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>120394</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>69</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>120958</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>099432</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>71</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>135788</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>72</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>099505</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>73</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>146515</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>74</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>122546</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>75</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>099190</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>76</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>26445</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>MAJSER</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>280524</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/Rapport Magasin.xlsx
+++ b/src/Rapport Magasin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,22 +499,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>55517</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>754190</t>
+          <t>077433</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -524,11 +524,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -543,22 +543,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>55517</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>118367</t>
+          <t>098899</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -587,22 +587,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>55517</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>843091</t>
+          <t>117147</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -612,11 +612,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -631,22 +631,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>03692</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>081842</t>
+          <t>116631</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -656,11 +656,11 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -675,22 +675,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>03692</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>098830</t>
+          <t>121963</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -700,11 +700,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -719,36 +719,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>65888</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>803977</t>
+          <t>102981</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C27</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -763,22 +763,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>70624</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>136825</t>
+          <t>121963</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -788,11 +788,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -807,36 +807,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>70624</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>011268</t>
+          <t>098899</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C45</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -851,36 +851,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>70624</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>062765</t>
+          <t>117147</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -895,22 +895,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>70624</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>098511</t>
+          <t>754190</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -939,17 +939,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>70624</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -964,11 +964,11 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -983,22 +983,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>70624</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>077995</t>
+          <t>116621</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1027,22 +1027,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>70624</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>120956</t>
+          <t>098934</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1071,22 +1071,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>65827</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>098934</t>
+          <t>098899</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1096,11 +1096,11 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1115,22 +1115,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>65827</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>100304</t>
+          <t>134926</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1159,36 +1159,36 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>65827</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>031285</t>
+          <t>117147</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1203,22 +1203,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>65827</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>116621</t>
+          <t>116632</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1247,36 +1247,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>65827</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>261578</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1291,22 +1291,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>01593</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>123223</t>
+          <t>101565</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1316,11 +1316,11 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1335,22 +1335,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>01593</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>121963</t>
+          <t>100414</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1360,11 +1360,11 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1379,22 +1379,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>01593</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>097976</t>
+          <t>098899</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1404,11 +1404,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1423,36 +1423,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>65822</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>043935</t>
+          <t>261578</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C15</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1467,32 +1467,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>50138</t>
+          <t>65822</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MAJSER</t>
+          <t>062765</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1511,22 +1511,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65822</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>105147</t>
+          <t>134926</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1555,22 +1555,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65822</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>120171</t>
+          <t>077433</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1580,11 +1580,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65864</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>843091</t>
+          <t>121944</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1624,11 +1624,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65864</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>081842</t>
+          <t>098899</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1668,11 +1668,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1687,22 +1687,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65864</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>098830</t>
+          <t>134926</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1731,22 +1731,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65864</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>121963</t>
+          <t>117147</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1756,11 +1756,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1775,22 +1775,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65864</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>150756</t>
+          <t>011765</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1800,11 +1800,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1819,22 +1819,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>03162</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>043935</t>
+          <t>101565</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1844,11 +1844,11 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1863,22 +1863,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>03162</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>281185</t>
+          <t>100414</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1907,22 +1907,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>03162</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>101565</t>
+          <t>117147</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1932,11 +1932,11 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1951,22 +1951,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>03162</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>100414</t>
+          <t>102981</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1976,11 +1976,11 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1995,22 +1995,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>03162</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>120956</t>
+          <t>098934</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2020,11 +2020,11 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -2039,22 +2039,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65818</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>102981</t>
+          <t>121944</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -2083,22 +2083,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65818</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>135793</t>
+          <t>754190</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2127,22 +2127,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65818</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>102158</t>
+          <t>120171</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2152,11 +2152,11 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -2171,22 +2171,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65818</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>100304</t>
+          <t>843120</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2196,11 +2196,11 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2215,22 +2215,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65818</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>081842</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2240,11 +2240,11 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2259,36 +2259,36 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65818</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>134926</t>
+          <t>803977</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C27</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2303,22 +2303,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65818</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>097675</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2347,32 +2347,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>729</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>65818</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MAJSER</t>
+          <t>031551</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>290724</t>
+          <t>310724</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2381,6 +2381,1194 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>116648</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>097675</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>65818</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>122546</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>65874</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>121963</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>20</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>65874</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>098899</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>65874</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>134926</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>65874</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>043935</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>65870</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>062765</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>65870</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>134926</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>65870</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>117147</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>65870</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>754190</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>65870</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>043935</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>65805</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>117147</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>4</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>65805</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>098934</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>65805</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>098899</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>65805</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>116648</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>10</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>65805</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>122546</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>50</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>65870</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>30</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>65843</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>136825</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>65843</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>098934</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>65843</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>116621</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>65877</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>134926</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>65877</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>098899</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>65877</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>105147</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>15</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>65877</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>754190</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>65877</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>121944</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>310724</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>30</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
